--- a/Раскладка_Питание_2025.05.23.xlsx
+++ b/Раскладка_Питание_2025.05.23.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="График" sheetId="1" state="visible" r:id="rId1"/>
@@ -955,6 +955,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,9 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,8 +1384,8 @@
   </sheetPr>
   <dimension ref="A1:AG79"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A39" colorId="21" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A10" colorId="21" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1"/>
@@ -1410,9 +1410,9 @@
         </is>
       </c>
       <c r="C2" s="147" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="158" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D2" s="159" t="inlineStr">
         <is>
           <t>График дежурств отъезд 23 мая 2025г</t>
         </is>
@@ -1427,7 +1427,7 @@
       <c r="C3" s="139" t="n"/>
       <c r="D3" s="139" t="n"/>
       <c r="E3" s="139" t="n"/>
-      <c r="F3" s="160" t="n"/>
+      <c r="F3" s="161" t="n"/>
       <c r="I3" s="139" t="n"/>
       <c r="J3" s="139" t="n"/>
       <c r="K3" s="139" t="n"/>
@@ -1610,7 +1610,7 @@
         <v/>
       </c>
       <c r="D6" s="10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="49" t="n"/>
       <c r="F6" s="59" t="n">
@@ -1744,7 +1744,7 @@
       <c r="AG8" s="163" t="n"/>
     </row>
     <row r="9" ht="20.25" customHeight="1" s="132">
-      <c r="A9" s="161" t="n"/>
+      <c r="A9" s="158" t="n"/>
       <c r="B9" s="62">
         <f>F6</f>
         <v/>
@@ -1784,7 +1784,7 @@
       <c r="AE9" s="26" t="n"/>
     </row>
     <row r="10" ht="20.25" customHeight="1" s="132" thickBot="1">
-      <c r="A10" s="161" t="n"/>
+      <c r="A10" s="158" t="n"/>
       <c r="B10" s="63" t="n"/>
       <c r="C10" s="109" t="inlineStr">
         <is>
@@ -1821,8 +1821,8 @@
       <c r="AE10" s="26" t="n"/>
     </row>
     <row r="11" ht="20.25" customHeight="1" s="132">
-      <c r="A11" s="161" t="n">
-        <v>7</v>
+      <c r="A11" s="158" t="n">
+        <v>6</v>
       </c>
       <c r="B11" s="62">
         <f>G5</f>
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D11" s="143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="152" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="D12" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="80" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="D13" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="153" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="D14" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="154" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="D15" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="80" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="D16" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="155" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="D17" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="152" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="D18" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="80" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D19" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="153" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="D20" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="154" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="D21" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="80" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="D22" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="155" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D23" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="152" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="D24" s="144" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="80" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="D25" s="123" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="153" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D26" s="117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="154" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="D27" s="76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="80" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="D28" s="123" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="155" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
       <c r="AE28" s="36" t="n"/>
     </row>
     <row r="29" ht="19.5" customHeight="1" s="132">
-      <c r="A29" s="161" t="n">
+      <c r="A29" s="158" t="n">
         <v>4</v>
       </c>
       <c r="B29" s="62">
@@ -2767,7 +2767,7 @@
       <c r="L30" s="93" t="n"/>
       <c r="M30" s="84" t="inlineStr">
         <is>
-          <t>Громов Б</t>
+          <t>Панин А</t>
         </is>
       </c>
       <c r="N30" s="95" t="n"/>
@@ -2814,7 +2814,7 @@
       <c r="L31" s="129" t="n"/>
       <c r="M31" s="85" t="inlineStr">
         <is>
-          <t>Панин С</t>
+          <t>Панин А</t>
         </is>
       </c>
       <c r="N31" s="131" t="n"/>
@@ -2865,7 +2865,7 @@
       <c r="M32" s="96" t="n"/>
       <c r="N32" s="104" t="inlineStr">
         <is>
-          <t>Панин А</t>
+          <t>Громов Б</t>
         </is>
       </c>
       <c r="O32" s="78" t="n"/>
@@ -2962,7 +2962,7 @@
       <c r="M34" s="113" t="n"/>
       <c r="N34" s="85" t="inlineStr">
         <is>
-          <t>Панин С</t>
+          <t>Громов Б</t>
         </is>
       </c>
       <c r="O34" s="131" t="n"/>
@@ -3010,7 +3010,7 @@
       <c r="N35" s="107" t="n"/>
       <c r="O35" s="104" t="inlineStr">
         <is>
-          <t>Панин А</t>
+          <t>Волкова А</t>
         </is>
       </c>
       <c r="P35" s="78" t="n"/>
@@ -3057,7 +3057,7 @@
       <c r="N36" s="79" t="n"/>
       <c r="O36" s="84" t="inlineStr">
         <is>
-          <t>Громов Б</t>
+          <t>Волкова А</t>
         </is>
       </c>
       <c r="P36" s="78" t="n"/>
@@ -3101,7 +3101,7 @@
       <c r="N37" s="113" t="n"/>
       <c r="O37" s="85" t="inlineStr">
         <is>
-          <t>Панин С</t>
+          <t>Волкова А</t>
         </is>
       </c>
       <c r="P37" s="131" t="n"/>
@@ -3149,7 +3149,7 @@
       <c r="O38" s="78" t="n"/>
       <c r="P38" s="104" t="inlineStr">
         <is>
-          <t>Панин А</t>
+          <t>Панин С</t>
         </is>
       </c>
       <c r="Q38" s="78" t="n"/>
@@ -3196,7 +3196,7 @@
       <c r="O39" s="78" t="n"/>
       <c r="P39" s="84" t="inlineStr">
         <is>
-          <t>Громов Б</t>
+          <t>Панин С</t>
         </is>
       </c>
       <c r="Q39" s="78" t="n"/>
@@ -3240,7 +3240,7 @@
       <c r="O40" s="113" t="n"/>
       <c r="P40" s="85" t="inlineStr">
         <is>
-          <t>Волкова А</t>
+          <t>Панин С</t>
         </is>
       </c>
       <c r="Q40" s="131" t="n"/>
@@ -3335,7 +3335,7 @@
       <c r="P42" s="78" t="n"/>
       <c r="Q42" s="84" t="inlineStr">
         <is>
-          <t>Громов Б</t>
+          <t>Панин А</t>
         </is>
       </c>
       <c r="R42" s="78" t="n"/>
@@ -3379,7 +3379,7 @@
       <c r="P43" s="113" t="n"/>
       <c r="Q43" s="85" t="inlineStr">
         <is>
-          <t>Панин С</t>
+          <t>Панин А</t>
         </is>
       </c>
       <c r="R43" s="131" t="n"/>
@@ -3427,7 +3427,7 @@
       <c r="Q44" s="78" t="n"/>
       <c r="R44" s="104" t="inlineStr">
         <is>
-          <t>Панин А</t>
+          <t>Громов Б</t>
         </is>
       </c>
       <c r="S44" s="78" t="n"/>
@@ -3518,7 +3518,7 @@
       <c r="Q46" s="113" t="n"/>
       <c r="R46" s="85" t="inlineStr">
         <is>
-          <t>Панин С</t>
+          <t>Громов Б</t>
         </is>
       </c>
       <c r="S46" s="131" t="n"/>
@@ -3566,7 +3566,7 @@
       <c r="R47" s="78" t="n"/>
       <c r="S47" s="104" t="inlineStr">
         <is>
-          <t>Панин А</t>
+          <t>Волкова А</t>
         </is>
       </c>
       <c r="T47" s="78" t="n"/>
@@ -3613,7 +3613,7 @@
       <c r="R48" s="78" t="n"/>
       <c r="S48" s="84" t="inlineStr">
         <is>
-          <t>Громов Б</t>
+          <t>Волкова А</t>
         </is>
       </c>
       <c r="T48" s="78" t="n"/>
@@ -3657,7 +3657,7 @@
       <c r="R49" s="113" t="n"/>
       <c r="S49" s="85" t="inlineStr">
         <is>
-          <t>Панин С</t>
+          <t>Волкова А</t>
         </is>
       </c>
       <c r="T49" s="131" t="n"/>
@@ -3705,7 +3705,7 @@
       <c r="S50" s="78" t="n"/>
       <c r="T50" s="104" t="inlineStr">
         <is>
-          <t>Панин А</t>
+          <t>Панин С</t>
         </is>
       </c>
       <c r="U50" s="78" t="n"/>
@@ -3752,7 +3752,7 @@
       <c r="S51" s="78" t="n"/>
       <c r="T51" s="84" t="inlineStr">
         <is>
-          <t>Громов Б</t>
+          <t>Панин С</t>
         </is>
       </c>
       <c r="U51" s="78" t="n"/>
@@ -3796,7 +3796,7 @@
       <c r="S52" s="113" t="n"/>
       <c r="T52" s="85" t="inlineStr">
         <is>
-          <t>Волкова А</t>
+          <t>Панин С</t>
         </is>
       </c>
       <c r="U52" s="131" t="n"/>
@@ -3891,7 +3891,7 @@
       <c r="T54" s="78" t="n"/>
       <c r="U54" s="84" t="inlineStr">
         <is>
-          <t>Громов Б</t>
+          <t>Панин А</t>
         </is>
       </c>
       <c r="V54" s="78" t="n"/>
@@ -3935,7 +3935,7 @@
       <c r="T55" s="113" t="n"/>
       <c r="U55" s="85" t="inlineStr">
         <is>
-          <t>Панин С</t>
+          <t>Панин А</t>
         </is>
       </c>
       <c r="V55" s="131" t="n"/>
@@ -3983,7 +3983,7 @@
       <c r="U56" s="78" t="n"/>
       <c r="V56" s="104" t="inlineStr">
         <is>
-          <t>Панин А</t>
+          <t>Громов Б</t>
         </is>
       </c>
       <c r="W56" s="78" t="n"/>
@@ -4074,7 +4074,7 @@
       <c r="U58" s="113" t="n"/>
       <c r="V58" s="85" t="inlineStr">
         <is>
-          <t>Панин С</t>
+          <t>Громов Б</t>
         </is>
       </c>
       <c r="W58" s="131" t="n"/>
@@ -4122,7 +4122,7 @@
       <c r="V59" s="78" t="n"/>
       <c r="W59" s="104" t="inlineStr">
         <is>
-          <t>Панин А</t>
+          <t>Волкова А</t>
         </is>
       </c>
       <c r="X59" s="78" t="n"/>
@@ -4169,7 +4169,7 @@
       <c r="V60" s="78" t="n"/>
       <c r="W60" s="84" t="inlineStr">
         <is>
-          <t>Громов Б</t>
+          <t>Волкова А</t>
         </is>
       </c>
       <c r="X60" s="78" t="n"/>
@@ -4261,7 +4261,7 @@
       <c r="W62" s="78" t="n"/>
       <c r="X62" s="104" t="inlineStr">
         <is>
-          <t>Панин А</t>
+          <t>Панин С</t>
         </is>
       </c>
       <c r="Y62" s="78" t="n"/>
@@ -4308,7 +4308,7 @@
       <c r="W63" s="78" t="n"/>
       <c r="X63" s="84" t="inlineStr">
         <is>
-          <t>Громов Б</t>
+          <t>Панин С</t>
         </is>
       </c>
       <c r="Y63" s="78" t="n"/>
@@ -4447,7 +4447,7 @@
       <c r="X66" s="78" t="n"/>
       <c r="Y66" s="84" t="inlineStr">
         <is>
-          <t>Громов Б</t>
+          <t>Панин А</t>
         </is>
       </c>
       <c r="Z66" s="78" t="n"/>
@@ -4491,7 +4491,7 @@
       <c r="X67" s="113" t="n"/>
       <c r="Y67" s="85" t="inlineStr">
         <is>
-          <t>Панин С</t>
+          <t>Панин А</t>
         </is>
       </c>
       <c r="Z67" s="131" t="n"/>
@@ -4539,7 +4539,7 @@
       <c r="Y68" s="78" t="n"/>
       <c r="Z68" s="104" t="inlineStr">
         <is>
-          <t>Панин А</t>
+          <t>Громов Б</t>
         </is>
       </c>
       <c r="AA68" s="78" t="n"/>
@@ -4630,7 +4630,7 @@
       <c r="Y70" s="113" t="n"/>
       <c r="Z70" s="85" t="inlineStr">
         <is>
-          <t>Панин С</t>
+          <t>Громов Б</t>
         </is>
       </c>
       <c r="AA70" s="131" t="n"/>
@@ -4678,7 +4678,7 @@
       <c r="Z71" s="78" t="n"/>
       <c r="AA71" s="104" t="inlineStr">
         <is>
-          <t>Панин А</t>
+          <t>Волкова А</t>
         </is>
       </c>
       <c r="AB71" s="78" t="n"/>
@@ -4725,7 +4725,7 @@
       <c r="Z72" s="78" t="n"/>
       <c r="AA72" s="84" t="inlineStr">
         <is>
-          <t>Громов Б</t>
+          <t>Волкова А</t>
         </is>
       </c>
       <c r="AB72" s="78" t="n"/>
@@ -4817,7 +4817,7 @@
       <c r="AA74" s="78" t="n"/>
       <c r="AB74" s="104" t="inlineStr">
         <is>
-          <t>Панин А</t>
+          <t>Панин С</t>
         </is>
       </c>
       <c r="AC74" s="78" t="n"/>
@@ -4864,7 +4864,7 @@
       <c r="AA75" s="78" t="n"/>
       <c r="AB75" s="84" t="inlineStr">
         <is>
-          <t>Громов Б</t>
+          <t>Панин С</t>
         </is>
       </c>
       <c r="AC75" s="78" t="n"/>
@@ -5056,8 +5056,8 @@
   </sheetPr>
   <dimension ref="A1:CP68"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A10" colorId="21" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6010,7 +6010,7 @@
         </is>
       </c>
       <c r="E14" s="136">
-        <f>SUM(G14,I14,K14)</f>
+        <f>SUM(G14,I14,K14,M14)</f>
         <v/>
       </c>
       <c r="F14" s="169" t="inlineStr">
@@ -6711,7 +6711,7 @@
         </is>
       </c>
       <c r="G27" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H27" s="169" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="G28" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H28" s="169" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
       <c r="E29" s="163" t="n"/>
       <c r="F29" s="163" t="n"/>
       <c r="G29" s="136" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H29" s="169" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         </is>
       </c>
       <c r="G38" s="136" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H38" s="169" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="G8" s="5" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H8" s="169" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         </is>
       </c>
       <c r="I8" s="6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J8" s="163" t="n"/>
       <c r="K8" s="163" t="n"/>
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="E14" s="136">
-        <f>SUM(G14,I14,K14)</f>
+        <f>SUM(G14,I14,K14,M14)</f>
         <v/>
       </c>
       <c r="F14" s="169" t="inlineStr">
@@ -9733,7 +9733,7 @@
         </is>
       </c>
       <c r="M14" s="157" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N14" s="163" t="n"/>
       <c r="O14" s="163" t="n"/>
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H20" s="169" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         </is>
       </c>
       <c r="G27" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H27" s="169" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         </is>
       </c>
       <c r="G28" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H28" s="169" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
       <c r="E29" s="163" t="n"/>
       <c r="F29" s="163" t="n"/>
       <c r="G29" s="136" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H29" s="169" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         </is>
       </c>
       <c r="G38" s="136" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H38" s="169" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         </is>
       </c>
       <c r="I8" s="6" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J8" s="163" t="n"/>
       <c r="K8" s="163" t="n"/>
@@ -13387,7 +13387,7 @@
         </is>
       </c>
       <c r="E14" s="136">
-        <f>SUM(G14,I14,K14)</f>
+        <f>SUM(G14,I14,K14,M14)</f>
         <v/>
       </c>
       <c r="F14" s="169" t="inlineStr">
@@ -13420,7 +13420,7 @@
         </is>
       </c>
       <c r="M14" s="157" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="N14" s="163" t="n"/>
       <c r="O14" s="163" t="n"/>
@@ -13727,7 +13727,7 @@
         </is>
       </c>
       <c r="I20" s="16" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J20" s="169" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         </is>
       </c>
       <c r="G27" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H27" s="169" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         </is>
       </c>
       <c r="G28" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H28" s="169" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
       <c r="E29" s="163" t="n"/>
       <c r="F29" s="163" t="n"/>
       <c r="G29" s="136" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H29" s="169" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         </is>
       </c>
       <c r="G38" s="136" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H38" s="169" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         </is>
       </c>
       <c r="I8" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="163" t="n"/>
       <c r="K8" s="163" t="n"/>
@@ -17074,7 +17074,7 @@
         </is>
       </c>
       <c r="E14" s="136">
-        <f>SUM(G14,I14,K14)</f>
+        <f>SUM(G14,I14,K14,M14)</f>
         <v/>
       </c>
       <c r="F14" s="169" t="inlineStr">
@@ -17107,7 +17107,7 @@
         </is>
       </c>
       <c r="M14" s="157" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14" s="163" t="n"/>
       <c r="O14" s="163" t="n"/>
@@ -17414,7 +17414,7 @@
         </is>
       </c>
       <c r="I20" s="16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J20" s="169" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         </is>
       </c>
       <c r="G27" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H27" s="169" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         </is>
       </c>
       <c r="G28" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H28" s="169" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
       <c r="E29" s="163" t="n"/>
       <c r="F29" s="163" t="n"/>
       <c r="G29" s="136" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H29" s="169" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         </is>
       </c>
       <c r="G38" s="136" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H38" s="169" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         </is>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H8" s="169" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         </is>
       </c>
       <c r="E14" s="136">
-        <f>SUM(G14,I14,K14)</f>
+        <f>SUM(G14,I14,K14,M14)</f>
         <v/>
       </c>
       <c r="F14" s="169" t="inlineStr">
@@ -20794,7 +20794,7 @@
         </is>
       </c>
       <c r="M14" s="157" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N14" s="163" t="n"/>
       <c r="O14" s="163" t="n"/>
@@ -21093,7 +21093,7 @@
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H20" s="169" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         </is>
       </c>
       <c r="I20" s="16" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J20" s="169" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         </is>
       </c>
       <c r="G27" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H27" s="169" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         </is>
       </c>
       <c r="G28" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H28" s="169" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
       <c r="E29" s="163" t="n"/>
       <c r="F29" s="163" t="n"/>
       <c r="G29" s="136" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H29" s="169" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         </is>
       </c>
       <c r="G38" s="136" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H38" s="169" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="G8" s="5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H8" s="169" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         </is>
       </c>
       <c r="I8" s="6" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J8" s="163" t="n"/>
       <c r="K8" s="163" t="n"/>
@@ -24448,7 +24448,7 @@
         </is>
       </c>
       <c r="E14" s="136">
-        <f>SUM(G14,I14,K14)</f>
+        <f>SUM(G14,I14,K14,M14)</f>
         <v/>
       </c>
       <c r="F14" s="169" t="inlineStr">
@@ -24481,7 +24481,7 @@
         </is>
       </c>
       <c r="M14" s="157" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N14" s="163" t="n"/>
       <c r="O14" s="163" t="n"/>
@@ -24788,7 +24788,7 @@
         </is>
       </c>
       <c r="I20" s="16" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J20" s="169" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         </is>
       </c>
       <c r="G27" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H27" s="169" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         </is>
       </c>
       <c r="G28" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H28" s="169" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
       <c r="E29" s="163" t="n"/>
       <c r="F29" s="163" t="n"/>
       <c r="G29" s="136" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H29" s="169" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         </is>
       </c>
       <c r="G38" s="136" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H38" s="169" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         </is>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="169" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         </is>
       </c>
       <c r="E14" s="136">
-        <f>SUM(G14,I14,K14)</f>
+        <f>SUM(G14,I14,K14,M14)</f>
         <v/>
       </c>
       <c r="F14" s="169" t="inlineStr">
@@ -28168,7 +28168,7 @@
         </is>
       </c>
       <c r="M14" s="157" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14" s="163" t="n"/>
       <c r="O14" s="163" t="n"/>
@@ -28467,7 +28467,7 @@
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" s="169" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         </is>
       </c>
       <c r="G27" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H27" s="169" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         </is>
       </c>
       <c r="G28" s="136" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H28" s="169" t="inlineStr">
         <is>
@@ -28988,7 +28988,7 @@
       <c r="E29" s="163" t="n"/>
       <c r="F29" s="163" t="n"/>
       <c r="G29" s="136" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H29" s="169" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         </is>
       </c>
       <c r="G38" s="136" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H38" s="169" t="inlineStr">
         <is>
